--- a/Data analytics/Language tests/Data/one_test_dichotomous_analysis.xlsx
+++ b/Data analytics/Language tests/Data/one_test_dichotomous_analysis.xlsx
@@ -355,7 +355,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="distribution_of_scores.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="distribution_of_dichotomous_scores.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
